--- a/APB Marketplace/APB Marketplace.xlsx
+++ b/APB Marketplace/APB Marketplace.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GitHub\APB-Reloaded-Creative-Stuff\APB Marketplace\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{010AFF6B-3260-435E-9CAB-6C20C4BF454B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2C13528-6A42-4AFF-8235-606731CC89EF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="390" yWindow="195" windowWidth="23700" windowHeight="15405" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
   <si>
     <t>NFAS-12 'True Ogre'</t>
   </si>
@@ -39,7 +39,13 @@
     <t>РЕКЛАМА:</t>
   </si>
   <si>
-    <t>WTB - NFAS-12 'True Ogre' You'r price in PM</t>
+    <t>WTB - NFAS-12 "True Ogre" You'r price in PM</t>
+  </si>
+  <si>
+    <t>WTS - NFAS-12 "True Ogre"</t>
+  </si>
+  <si>
+    <t>ПРОДАЖА:</t>
   </si>
 </sst>
 </file>
@@ -139,7 +145,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -201,11 +207,55 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </right>
+      <top style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="1" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
@@ -231,17 +281,29 @@
     <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -522,10 +584,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:E10"/>
+  <dimension ref="A2:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -533,24 +595,25 @@
     <col min="1" max="1" width="9.140625" style="1"/>
     <col min="2" max="2" width="4.140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="28.85546875" style="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="24" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
-      <c r="B2" s="11"/>
+      <c r="B2" s="19"/>
       <c r="C2" s="5" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B3" s="11"/>
+      <c r="B3" s="19"/>
       <c r="C3" s="6" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B4" s="14">
+      <c r="B4" s="11">
         <v>1</v>
       </c>
       <c r="C4" s="7">
@@ -559,56 +622,97 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B5" s="15">
+      <c r="B5" s="12">
         <v>2</v>
       </c>
-      <c r="C5" s="8"/>
+      <c r="C5" s="8">
+        <f>2449000*80%</f>
+        <v>1959200</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B6" s="14">
+      <c r="B6" s="11">
         <v>3</v>
       </c>
-      <c r="C6" s="7"/>
+      <c r="C6" s="7">
+        <f>2450000*80%</f>
+        <v>1960000</v>
+      </c>
       <c r="E6" s="3"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B7" s="15">
+      <c r="B7" s="12">
         <v>4</v>
       </c>
       <c r="C7" s="8"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B8" s="14">
+      <c r="B8" s="11">
         <v>5</v>
       </c>
       <c r="C8" s="7"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="12" t="s">
+      <c r="A9" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="13"/>
+      <c r="B9" s="18"/>
       <c r="C9" s="9">
         <f>AVERAGE(C4:C8)</f>
-        <v>2120000</v>
+        <v>2013066.6666666667</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="12" t="s">
+      <c r="A10" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="13"/>
+      <c r="B10" s="18"/>
       <c r="C10" s="10" t="s">
         <v>4</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
     </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="B11" s="18"/>
+      <c r="C11" s="10" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="14"/>
+      <c r="C12" s="8">
+        <f>C9*120%</f>
+        <v>2415680</v>
+      </c>
+      <c r="D12" s="8">
+        <v>2415680</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="15"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="7">
+        <f>(C9-100000)*120%</f>
+        <v>2295680</v>
+      </c>
+      <c r="D13" s="7">
+        <v>2295680</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="5">
+    <mergeCell ref="A12:B13"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="B2:B3"/>
+    <mergeCell ref="A11:B11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
